--- a/output/FreqDiscovCitptile0.9alpha0.2power0.8N1000/FreqDiscovCitptile0.9alpha0.2power0.8N1000N1000.xlsx
+++ b/output/FreqDiscovCitptile0.9alpha0.2power0.8N1000/FreqDiscovCitptile0.9alpha0.2power0.8N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\FreqDiscovCitptile0.9alpha0.2power0.8N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE022144-4142-44DA-9B55-2602FEBD4E01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221FD780-19A5-4A8F-AFFF-34F122CEE663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3105" windowWidth="21600" windowHeight="12735" xr2:uid="{0AD2E44D-0FD2-45E4-B353-4CB29F509654}"/>
+    <workbookView xWindow="1152" yWindow="6684" windowWidth="27060" windowHeight="10800" xr2:uid="{5C0554EF-DF56-4C7D-B782-3BA118CE379C}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,29 +466,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961CA65E-BE85-4F5A-917F-689A246B7CC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307FA351-C027-4086-8613-CBF8C08E189A}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -543,46 +543,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.19957489354414179</v>
+        <v>0.19995522495688081</v>
       </c>
       <c r="D2">
-        <v>0.94583118645813946</v>
+        <v>0.95119096111961443</v>
       </c>
       <c r="E2">
-        <v>8.9</v>
+        <v>9.0109999999999992</v>
       </c>
       <c r="F2">
-        <v>126.509</v>
+        <v>126.858</v>
       </c>
       <c r="G2">
-        <v>11.409000000000001</v>
+        <v>11.759</v>
       </c>
       <c r="H2">
-        <v>1.61</v>
+        <v>1.6619999999999999</v>
       </c>
       <c r="I2">
-        <v>1.115</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J2">
-        <v>0.19828422190535097</v>
+        <v>0.19845633406283003</v>
       </c>
       <c r="K2">
-        <v>0.94317321738629756</v>
+        <v>0.94591973833270215</v>
       </c>
       <c r="L2">
-        <v>26.509</v>
+        <v>26.858000000000001</v>
       </c>
       <c r="M2">
-        <v>126.509</v>
+        <v>126.858</v>
       </c>
       <c r="N2">
-        <v>1.6080000000000001</v>
+        <v>1.766</v>
       </c>
       <c r="O2">
-        <v>1.0980000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1850000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -590,46 +590,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.19870995047414511</v>
+        <v>0.20110348331762906</v>
       </c>
       <c r="D3">
-        <v>0.93840634919817989</v>
+        <v>0.94311202997080368</v>
       </c>
       <c r="E3">
-        <v>9.06</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="F3">
-        <v>126.55800000000001</v>
+        <v>126.777</v>
       </c>
       <c r="G3">
-        <v>11.67</v>
+        <v>11.759</v>
       </c>
       <c r="H3">
-        <v>1.147</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="I3">
-        <v>0.85</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="J3">
-        <v>0.20474108769190746</v>
+        <v>0.18141227793545692</v>
       </c>
       <c r="K3">
-        <v>0.94085478714453996</v>
+        <v>0.94306811332127805</v>
       </c>
       <c r="L3">
-        <v>26.558</v>
+        <v>26.777000000000001</v>
       </c>
       <c r="M3">
-        <v>102.702</v>
+        <v>102.64700000000001</v>
       </c>
       <c r="N3">
-        <v>1.1879999999999999</v>
+        <v>1.129</v>
       </c>
       <c r="O3">
-        <v>0.79600000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -637,46 +637,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.19960056296478984</v>
+        <v>0.20083990102901575</v>
       </c>
       <c r="D4">
-        <v>0.94655015513961449</v>
+        <v>0.94680173188515138</v>
       </c>
       <c r="E4">
-        <v>9.1940000000000008</v>
+        <v>9.0310000000000006</v>
       </c>
       <c r="F4">
-        <v>126.78</v>
+        <v>126.745</v>
       </c>
       <c r="G4">
-        <v>11.779</v>
+        <v>11.577</v>
       </c>
       <c r="H4">
-        <v>1.736</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="I4">
-        <v>1.262</v>
+        <v>1.1020000000000001</v>
       </c>
       <c r="J4">
-        <v>0.1931294080021547</v>
+        <v>0.19788471530815782</v>
       </c>
       <c r="K4">
-        <v>0.94688589935226697</v>
+        <v>0.95031085604973664</v>
       </c>
       <c r="L4">
-        <v>26.78</v>
+        <v>26.745000000000001</v>
       </c>
       <c r="M4">
-        <v>103.83799999999999</v>
+        <v>103.88200000000001</v>
       </c>
       <c r="N4">
-        <v>1.667</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="O4">
-        <v>1.145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -684,46 +684,46 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.19975480015793845</v>
+        <v>0.2007045939949916</v>
       </c>
       <c r="D5">
-        <v>0.94928247186997039</v>
+        <v>0.93816578711266607</v>
       </c>
       <c r="E5">
-        <v>8.8260000000000005</v>
+        <v>9.0760000000000005</v>
       </c>
       <c r="F5">
-        <v>126.545</v>
+        <v>126.752</v>
       </c>
       <c r="G5">
-        <v>11.500999999999999</v>
+        <v>11.554</v>
       </c>
       <c r="H5">
-        <v>2.5819999999999999</v>
+        <v>2.7149999999999999</v>
       </c>
       <c r="I5">
-        <v>1.8009999999999999</v>
+        <v>1.89</v>
       </c>
       <c r="J5">
-        <v>0.19291931860044875</v>
+        <v>0.1948407098003464</v>
       </c>
       <c r="K5">
-        <v>0.94232114646806575</v>
+        <v>0.95027082609199376</v>
       </c>
       <c r="L5">
-        <v>26.545000000000002</v>
+        <v>26.751999999999999</v>
       </c>
       <c r="M5">
-        <v>106.17100000000001</v>
+        <v>106.258</v>
       </c>
       <c r="N5">
-        <v>2.67</v>
+        <v>2.7309999999999999</v>
       </c>
       <c r="O5">
-        <v>1.8120000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -731,46 +731,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2019860888345931</v>
+        <v>0.2490767973411048</v>
       </c>
       <c r="D6">
-        <v>0.96409646026097207</v>
+        <v>0.96872069195599519</v>
       </c>
       <c r="E6">
-        <v>9.02</v>
+        <v>9.1010000000000009</v>
       </c>
       <c r="F6">
-        <v>127.078</v>
+        <v>131.446</v>
       </c>
       <c r="G6">
-        <v>12.128</v>
+        <v>14.157999999999999</v>
       </c>
       <c r="H6">
-        <v>1.73</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="I6">
-        <v>1.2450000000000001</v>
+        <v>1.175</v>
       </c>
       <c r="J6">
-        <v>0.20311655774771514</v>
+        <v>0.2471670456579611</v>
       </c>
       <c r="K6">
-        <v>0.96295276857349088</v>
+        <v>0.97050664566628997</v>
       </c>
       <c r="L6">
-        <v>27.077999999999999</v>
+        <v>31.446000000000002</v>
       </c>
       <c r="M6">
-        <v>127.078</v>
+        <v>131.446</v>
       </c>
       <c r="N6">
-        <v>1.833</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="O6">
-        <v>1.2170000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -778,46 +778,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.20391611812715635</v>
+        <v>0.24772486763301227</v>
       </c>
       <c r="D7">
-        <v>0.96398231547596136</v>
+        <v>0.97475464792479416</v>
       </c>
       <c r="E7">
-        <v>9.0120000000000005</v>
+        <v>8.9480000000000004</v>
       </c>
       <c r="F7">
-        <v>127.143</v>
+        <v>131.36099999999999</v>
       </c>
       <c r="G7">
-        <v>11.962999999999999</v>
+        <v>14.314</v>
       </c>
       <c r="H7">
-        <v>1.2170000000000001</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="I7">
-        <v>0.82199999999999995</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="J7">
-        <v>0.1955523392270381</v>
+        <v>0.23075056202738609</v>
       </c>
       <c r="K7">
-        <v>0.9619429590017825</v>
+        <v>0.9717314487632509</v>
       </c>
       <c r="L7">
-        <v>27.143000000000001</v>
+        <v>31.361000000000001</v>
       </c>
       <c r="M7">
-        <v>102.77500000000001</v>
+        <v>103.2</v>
       </c>
       <c r="N7">
-        <v>1.2130000000000001</v>
+        <v>1.4470000000000001</v>
       </c>
       <c r="O7">
-        <v>0.81399999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -825,46 +825,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0.20099058811329468</v>
+        <v>0.25163833075460934</v>
       </c>
       <c r="D8">
-        <v>0.96654723421160504</v>
+        <v>0.97126633543623475</v>
       </c>
       <c r="E8">
-        <v>9.1349999999999998</v>
+        <v>8.91</v>
       </c>
       <c r="F8">
-        <v>127.087</v>
+        <v>131.53399999999999</v>
       </c>
       <c r="G8">
-        <v>12.19</v>
+        <v>14.090999999999999</v>
       </c>
       <c r="H8">
-        <v>1.5880000000000001</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="I8">
-        <v>1.1659999999999999</v>
+        <v>1.2150000000000001</v>
       </c>
       <c r="J8">
-        <v>0.20458826762604315</v>
+        <v>0.24733980011757795</v>
       </c>
       <c r="K8">
-        <v>0.97242557345046354</v>
+        <v>0.97337137422729403</v>
       </c>
       <c r="L8">
-        <v>27.087</v>
+        <v>31.533999999999999</v>
       </c>
       <c r="M8">
-        <v>103.877</v>
+        <v>104.59099999999999</v>
       </c>
       <c r="N8">
-        <v>1.772</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="O8">
-        <v>1.2390000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2190000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -872,46 +872,46 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.2014903404892969</v>
+        <v>0.24997677939366206</v>
       </c>
       <c r="D9">
-        <v>0.96376811403271756</v>
+        <v>0.97079295249804265</v>
       </c>
       <c r="E9">
-        <v>9.08</v>
+        <v>8.9939999999999998</v>
       </c>
       <c r="F9">
-        <v>127.07</v>
+        <v>131.38399999999999</v>
       </c>
       <c r="G9">
-        <v>12.166</v>
+        <v>13.997</v>
       </c>
       <c r="H9">
-        <v>2.8580000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="I9">
-        <v>2.0939999999999999</v>
+        <v>1.94</v>
       </c>
       <c r="J9">
-        <v>0.19233829294374186</v>
+        <v>0.25006151209762018</v>
       </c>
       <c r="K9">
-        <v>0.96496558338975358</v>
+        <v>0.96627124347972393</v>
       </c>
       <c r="L9">
-        <v>27.07</v>
+        <v>31.384</v>
       </c>
       <c r="M9">
-        <v>106.42100000000001</v>
+        <v>107.381</v>
       </c>
       <c r="N9">
-        <v>2.8460000000000001</v>
+        <v>3.3180000000000001</v>
       </c>
       <c r="O9">
-        <v>1.9990000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.9570000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -919,46 +919,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.21757143301075471</v>
+        <v>0.29620797865728682</v>
       </c>
       <c r="D10">
-        <v>0.99302156166319089</v>
+        <v>0.99592380231514788</v>
       </c>
       <c r="E10">
-        <v>9.02</v>
+        <v>8.8819999999999997</v>
       </c>
       <c r="F10">
-        <v>128.89599999999999</v>
+        <v>135.74100000000001</v>
       </c>
       <c r="G10">
-        <v>13.404</v>
+        <v>16.558</v>
       </c>
       <c r="H10">
-        <v>1.792</v>
+        <v>2.4060000000000001</v>
       </c>
       <c r="I10">
-        <v>1.3169999999999999</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="J10">
-        <v>0.22072092925891615</v>
+        <v>0.29455206320537547</v>
       </c>
       <c r="K10">
-        <v>0.99359768738213683</v>
+        <v>0.99429264393956263</v>
       </c>
       <c r="L10">
-        <v>28.896000000000001</v>
+        <v>35.741</v>
       </c>
       <c r="M10">
-        <v>128.89599999999999</v>
+        <v>135.74100000000001</v>
       </c>
       <c r="N10">
-        <v>2.0030000000000001</v>
+        <v>2.54</v>
       </c>
       <c r="O10">
-        <v>1.389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -966,46 +966,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.21936403447599875</v>
+        <v>0.29434673244948173</v>
       </c>
       <c r="D11">
-        <v>0.99452704545886872</v>
+        <v>0.99566049317553107</v>
       </c>
       <c r="E11">
-        <v>9.0519999999999996</v>
+        <v>8.8249999999999993</v>
       </c>
       <c r="F11">
-        <v>128.988</v>
+        <v>135.49199999999999</v>
       </c>
       <c r="G11">
-        <v>13.337999999999999</v>
+        <v>16.483000000000001</v>
       </c>
       <c r="H11">
-        <v>1.39</v>
+        <v>1.643</v>
       </c>
       <c r="I11">
-        <v>0.86499999999999999</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="J11">
-        <v>0.21565299387081577</v>
+        <v>0.27968036529680357</v>
       </c>
       <c r="K11">
-        <v>0.99577886710239649</v>
+        <v>0.9929017603634297</v>
       </c>
       <c r="L11">
-        <v>28.988</v>
+        <v>35.491999999999997</v>
       </c>
       <c r="M11">
-        <v>102.96299999999999</v>
+        <v>103.702</v>
       </c>
       <c r="N11">
-        <v>1.411</v>
+        <v>1.706</v>
       </c>
       <c r="O11">
-        <v>0.97199999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1013,46 +1013,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.21615262319969658</v>
+        <v>0.29552045439881047</v>
       </c>
       <c r="D12">
-        <v>0.99406867240225205</v>
+        <v>0.99558387830188011</v>
       </c>
       <c r="E12">
-        <v>9.0500000000000007</v>
+        <v>9.0489999999999995</v>
       </c>
       <c r="F12">
-        <v>128.59700000000001</v>
+        <v>135.827</v>
       </c>
       <c r="G12">
-        <v>13.22</v>
+        <v>16.78</v>
       </c>
       <c r="H12">
-        <v>1.919</v>
+        <v>2.5419999999999998</v>
       </c>
       <c r="I12">
-        <v>1.246</v>
+        <v>1.1619999999999999</v>
       </c>
       <c r="J12">
-        <v>0.19711463660890163</v>
+        <v>0.29815491362747454</v>
       </c>
       <c r="K12">
-        <v>0.9963235294117645</v>
+        <v>0.99883612662942267</v>
       </c>
       <c r="L12">
-        <v>28.597000000000001</v>
+        <v>35.826999999999998</v>
       </c>
       <c r="M12">
-        <v>104.06699999999999</v>
+        <v>105.161</v>
       </c>
       <c r="N12">
-        <v>1.83</v>
+        <v>2.4289999999999998</v>
       </c>
       <c r="O12">
-        <v>1.2430000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2909999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1060,46 +1060,46 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.21796687349622718</v>
+        <v>0.29293136578730194</v>
       </c>
       <c r="D13">
-        <v>0.99415666997289087</v>
+        <v>0.99690757525724827</v>
       </c>
       <c r="E13">
-        <v>9.0670000000000002</v>
+        <v>9.1240000000000006</v>
       </c>
       <c r="F13">
-        <v>128.84</v>
+        <v>135.714</v>
       </c>
       <c r="G13">
-        <v>13.188000000000001</v>
+        <v>16.934999999999999</v>
       </c>
       <c r="H13">
-        <v>3.1680000000000001</v>
+        <v>4.1669999999999998</v>
       </c>
       <c r="I13">
-        <v>2.1970000000000001</v>
+        <v>2.137</v>
       </c>
       <c r="J13">
-        <v>0.21406613379899653</v>
+        <v>0.28160348781263822</v>
       </c>
       <c r="K13">
-        <v>0.991940532081377</v>
+        <v>0.99825174825174823</v>
       </c>
       <c r="L13">
-        <v>28.84</v>
+        <v>35.713999999999999</v>
       </c>
       <c r="M13">
-        <v>106.783</v>
+        <v>108.42400000000001</v>
       </c>
       <c r="N13">
-        <v>3.0920000000000001</v>
+        <v>3.8359999999999999</v>
       </c>
       <c r="O13">
-        <v>2.0459999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1107,46 +1107,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.23194281861094268</v>
+        <v>0.31820274499773671</v>
       </c>
       <c r="D14">
-        <v>0.99950474950474943</v>
+        <v>0.99907144736804043</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>8.8290000000000006</v>
       </c>
       <c r="F14">
-        <v>130.05600000000001</v>
+        <v>137.71100000000001</v>
       </c>
       <c r="G14">
-        <v>13.804</v>
+        <v>17.997</v>
       </c>
       <c r="H14">
-        <v>1.986</v>
+        <v>2.472</v>
       </c>
       <c r="I14">
-        <v>1.2390000000000001</v>
+        <v>1.306</v>
       </c>
       <c r="J14">
-        <v>0.23071233416249243</v>
+        <v>0.321263597700434</v>
       </c>
       <c r="K14">
-        <v>0.99938708549819666</v>
+        <v>0.99953958032615331</v>
       </c>
       <c r="L14">
-        <v>30.056000000000001</v>
+        <v>37.710999999999999</v>
       </c>
       <c r="M14">
-        <v>130.05600000000001</v>
+        <v>137.71100000000001</v>
       </c>
       <c r="N14">
-        <v>1.909</v>
+        <v>2.5779999999999998</v>
       </c>
       <c r="O14">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1154,46 +1154,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.23379026142082157</v>
+        <v>0.31830708447355266</v>
       </c>
       <c r="D15">
-        <v>0.99963865956844888</v>
+        <v>0.99936770893096205</v>
       </c>
       <c r="E15">
-        <v>8.9939999999999998</v>
+        <v>9.0990000000000002</v>
       </c>
       <c r="F15">
-        <v>130.24299999999999</v>
+        <v>137.85</v>
       </c>
       <c r="G15">
-        <v>13.896000000000001</v>
+        <v>18.102</v>
       </c>
       <c r="H15">
-        <v>1.456</v>
+        <v>1.7729999999999999</v>
       </c>
       <c r="I15">
-        <v>0.85</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="J15">
-        <v>0.23513375274922016</v>
+        <v>0.32492038870011947</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>30.242999999999999</v>
+        <v>37.85</v>
       </c>
       <c r="M15">
-        <v>103.008</v>
+        <v>103.77200000000001</v>
       </c>
       <c r="N15">
-        <v>1.39</v>
+        <v>1.8129999999999999</v>
       </c>
       <c r="O15">
-        <v>0.89700000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1201,46 +1201,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>0.2305732467854773</v>
+        <v>0.31295049299874012</v>
       </c>
       <c r="D16">
-        <v>0.99895833333333339</v>
+        <v>0.9997906197654941</v>
       </c>
       <c r="E16">
-        <v>9.0839999999999996</v>
+        <v>9.0879999999999992</v>
       </c>
       <c r="F16">
-        <v>130.01400000000001</v>
+        <v>137.512</v>
       </c>
       <c r="G16">
-        <v>13.797000000000001</v>
+        <v>18.077999999999999</v>
       </c>
       <c r="H16">
-        <v>2.0299999999999998</v>
+        <v>2.5419999999999998</v>
       </c>
       <c r="I16">
-        <v>1.333</v>
+        <v>1.2869999999999999</v>
       </c>
       <c r="J16">
-        <v>0.23247711256010017</v>
+        <v>0.31462535379878143</v>
       </c>
       <c r="K16">
-        <v>0.99953959484346233</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>30.013999999999999</v>
+        <v>37.512</v>
       </c>
       <c r="M16">
-        <v>104.375</v>
+        <v>105.456</v>
       </c>
       <c r="N16">
-        <v>2.0179999999999998</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="O16">
-        <v>1.296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1248,43 +1248,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0.23194578426380849</v>
+        <v>0.31725840376789194</v>
       </c>
       <c r="D17">
-        <v>0.99880355949995225</v>
+        <v>0.99873566969044347</v>
       </c>
       <c r="E17">
-        <v>8.8529999999999998</v>
+        <v>9.1150000000000002</v>
       </c>
       <c r="F17">
-        <v>130.00200000000001</v>
+        <v>137.93299999999999</v>
       </c>
       <c r="G17">
-        <v>13.813000000000001</v>
+        <v>18.222000000000001</v>
       </c>
       <c r="H17">
-        <v>3.4</v>
+        <v>4.5279999999999996</v>
       </c>
       <c r="I17">
-        <v>2.157</v>
+        <v>2.06</v>
       </c>
       <c r="J17">
-        <v>0.22299401045632181</v>
+        <v>0.32071495127050625</v>
       </c>
       <c r="K17">
-        <v>0.99941792782305006</v>
+        <v>0.99961597542242697</v>
       </c>
       <c r="L17">
-        <v>30.001999999999999</v>
+        <v>37.933</v>
       </c>
       <c r="M17">
-        <v>107.184</v>
+        <v>108.976</v>
       </c>
       <c r="N17">
-        <v>3.2709999999999999</v>
+        <v>4.3579999999999997</v>
       </c>
       <c r="O17">
-        <v>2.1360000000000001</v>
+        <v>2.1760000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1293,29 +1293,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF922779-0103-4B84-BF51-CF75A0C402E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C4B6D2-2394-4FE9-BC53-8649734EFF2F}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
